--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
-    <sheet name="Invalid" sheetId="2" r:id="rId2"/>
+    <sheet name="Blank" sheetId="2" r:id="rId2"/>
+    <sheet name="Invalid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -46,10 +47,25 @@
     <t>Thao Van Vo</t>
   </si>
   <si>
-    <t>kms123</t>
-  </si>
-  <si>
-    <t>toannguyen</t>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Username may not be empty.</t>
+  </si>
+  <si>
+    <t>Password may not be empty.</t>
+  </si>
+  <si>
+    <t>Incorrect credentials, please try again.</t>
+  </si>
+  <si>
+    <t>+-+</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>kms2017</t>
   </si>
 </sst>
 </file>
@@ -85,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,50 +437,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
